--- a/demo/Shoulder_SCHR/Muscles_tab.xlsx
+++ b/demo/Shoulder_SCHR/Muscles_tab.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zoufi\Documents\MATLAB\OptimTraj\demo\Shoulder_SCHR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zoufaond\Documents\Matlab\OptimTraj\demo\Shoulder_SCHR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDE3E2C-8F9B-470F-8AE6-244FB8510B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FCAEDB-D6BF-4AC3-B60B-B78B1F5C9156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="10200" xr2:uid="{AB527CEB-DB72-4887-9BE2-7C54A3871F43}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AB527CEB-DB72-4887-9BE2-7C54A3871F43}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -50,12 +50,6 @@
     <t>DELT2</t>
   </si>
   <si>
-    <t>INFSP</t>
-  </si>
-  <si>
-    <t>LAT</t>
-  </si>
-  <si>
     <t>Origin</t>
   </si>
   <si>
@@ -86,9 +80,6 @@
     <t>400.0</t>
   </si>
   <si>
-    <t>0.0</t>
-  </si>
-  <si>
     <t>600.0</t>
   </si>
   <si>
@@ -131,9 +122,6 @@
     <t>0.105</t>
   </si>
   <si>
-    <t>0.38</t>
-  </si>
-  <si>
     <t>0.08</t>
   </si>
   <si>
@@ -141,6 +129,18 @@
   </si>
   <si>
     <t>0.1</t>
+  </si>
+  <si>
+    <t>500.0</t>
+  </si>
+  <si>
+    <t>TRAP</t>
+  </si>
+  <si>
+    <t>TERMAJ</t>
+  </si>
+  <si>
+    <t>0.17</t>
   </si>
 </sst>
 </file>
@@ -499,21 +499,21 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.26953125" customWidth="1"/>
-    <col min="3" max="3" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="29.7265625" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -521,197 +521,197 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
       <c r="H1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>30</v>
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>32</v>
+      <c r="C4" t="s">
+        <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>33</v>
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>34</v>
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>

--- a/demo/Shoulder_SCHR/Muscles_tab.xlsx
+++ b/demo/Shoulder_SCHR/Muscles_tab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zoufaond\Documents\Matlab\OptimTraj\demo\Shoulder_SCHR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FCAEDB-D6BF-4AC3-B60B-B78B1F5C9156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA523D7A-3D6F-4DE4-849D-7BF5D4040F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AB527CEB-DB72-4887-9BE2-7C54A3871F43}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
   <si>
     <t>Muscle</t>
   </si>
@@ -44,12 +44,6 @@
     <t>F0M</t>
   </si>
   <si>
-    <t>DELT1</t>
-  </si>
-  <si>
-    <t>DELT2</t>
-  </si>
-  <si>
     <t>Origin</t>
   </si>
   <si>
@@ -71,9 +65,6 @@
     <t>Thorax</t>
   </si>
   <si>
-    <t>Cuff</t>
-  </si>
-  <si>
     <t>700.0</t>
   </si>
   <si>
@@ -83,74 +74,129 @@
     <t>600.0</t>
   </si>
   <si>
-    <t>200.0</t>
-  </si>
-  <si>
     <t>Optimal length</t>
   </si>
   <si>
-    <t>[-0.01 0.02]</t>
-  </si>
-  <si>
-    <t>[0 -0.03]</t>
-  </si>
-  <si>
-    <t>[-0.08 0.08]</t>
-  </si>
-  <si>
-    <t>[-0.12 -0.02]</t>
-  </si>
-  <si>
-    <t>[0.02 0.12]</t>
-  </si>
-  <si>
     <t>[0.01 0.05]</t>
   </si>
   <si>
-    <t>[0 0.08]</t>
-  </si>
-  <si>
-    <t>[0.05 0.02]</t>
-  </si>
-  <si>
-    <t>[-0.08 -0.15]</t>
-  </si>
-  <si>
     <t>Wrapping</t>
   </si>
   <si>
-    <t>0.105</t>
-  </si>
-  <si>
     <t>0.08</t>
   </si>
   <si>
-    <t>0.115</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>500.0</t>
-  </si>
-  <si>
-    <t>TRAP</t>
-  </si>
-  <si>
-    <t>TERMAJ</t>
-  </si>
-  <si>
-    <t>0.17</t>
+    <t>TRAP1</t>
+  </si>
+  <si>
+    <t>TRAP2</t>
+  </si>
+  <si>
+    <t>Levator</t>
+  </si>
+  <si>
+    <t>DELT</t>
+  </si>
+  <si>
+    <t>800.0</t>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>Supraspinatus</t>
+  </si>
+  <si>
+    <t>[0.01 0.115]</t>
+  </si>
+  <si>
+    <t>450.0</t>
+  </si>
+  <si>
+    <t>TerMin</t>
+  </si>
+  <si>
+    <t>[0.0 -0.03]</t>
+  </si>
+  <si>
+    <t>[0 0.09]</t>
+  </si>
+  <si>
+    <t>[-0.03 0.03]</t>
+  </si>
+  <si>
+    <t>[0.05 0.035]</t>
+  </si>
+  <si>
+    <t>[0.04 0.04]</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>TRAP3</t>
+  </si>
+  <si>
+    <t>[-0.12 0.1]</t>
+  </si>
+  <si>
+    <t>[-0.12 0.06]</t>
+  </si>
+  <si>
+    <t>[0.03 0.04]</t>
+  </si>
+  <si>
+    <t>[-0.12 -0.14]</t>
+  </si>
+  <si>
+    <t>[-0.06 -0.0]</t>
+  </si>
+  <si>
+    <t>600.1</t>
+  </si>
+  <si>
+    <t>Rhomboideus</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>0.165</t>
+  </si>
+  <si>
+    <t>300.0</t>
+  </si>
+  <si>
+    <t>[-0.08 0.0]</t>
+  </si>
+  <si>
+    <t>[-0.12 0.09]</t>
+  </si>
+  <si>
+    <t>[-0.12 -0.01]</t>
+  </si>
+  <si>
+    <t>[-0.08 -0.08]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -177,11 +223,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -499,7 +544,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,45 +566,45 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
       <c r="H1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -567,25 +612,25 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>31</v>
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -593,25 +638,25 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
       </c>
       <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
         <v>28</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -619,25 +664,25 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -645,47 +690,107 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
@@ -718,6 +823,7 @@
       <c r="F14" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
